--- a/case/c3/c3.xlsx
+++ b/case/c3/c3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="540" windowWidth="25040" windowHeight="14980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="apis" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>http://api-promotion.test.rs.com/subPromotion/skuList</t>
   </si>
@@ -85,14 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assert_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,51 +149,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.124.13:53305/luckyDraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_11_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>param_9_json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.124.13:53305/luckyDraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001</t>
+    <t>param_10_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.124.13:53305/receivePrize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_11_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_11_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_9_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataMap/success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "openId": "314243",
+  "mobile": "sf",
+  "address": "asf",
+  "prizeCode": "86e52df8-3113-48f3-95af-34bfbf75d5d7"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +295,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -286,16 +346,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="26">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -319,6 +383,8 @@
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -679,7 +745,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -694,10 +760,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -709,10 +775,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -724,10 +790,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -739,10 +805,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -754,10 +820,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -769,10 +835,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -784,33 +850,48 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -822,6 +903,7 @@
     <hyperlink ref="B8" r:id="rId5"/>
     <hyperlink ref="B9" r:id="rId6"/>
     <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8" display="http://192.168.124.13:53305/luckyDraw"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -835,9 +917,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -850,10 +932,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -870,21 +968,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -895,7 +994,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -906,7 +1005,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -917,7 +1016,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -928,7 +1027,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -939,7 +1038,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -950,7 +1049,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -961,7 +1060,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -972,13 +1071,46 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/case/c3/c3.xlsx
+++ b/case/c3/c3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7540" yWindow="40" windowWidth="17120" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="apis" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>http://api-promotion.test.rs.com/subPromotion/skuList</t>
   </si>
@@ -248,11 +248,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>api_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_12_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_13_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_11_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_12_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   "openId": "314243",
   "mobile": "sf",
   "address": "asf",
-  "prizeCode": "86e52df8-3113-48f3-95af-34bfbf75d5d7"
+  "prizeCode": "14334155-be5d-4396-833f-bf0c4c1044d4"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -893,6 +917,36 @@
       </c>
       <c r="E11" s="3"/>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -904,6 +958,8 @@
     <hyperlink ref="B9" r:id="rId6"/>
     <hyperlink ref="B10" r:id="rId7"/>
     <hyperlink ref="B11" r:id="rId8" display="http://192.168.124.13:53305/luckyDraw"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -917,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -951,7 +1007,23 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -968,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1111,6 +1183,28 @@
       </c>
       <c r="C12" s="5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
